--- a/Clase2/TablaCatodo.xlsx
+++ b/Clase2/TablaCatodo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>CATADO</t>
   </si>
@@ -147,13 +147,37 @@
   </si>
   <si>
     <t>G=XYZ</t>
+  </si>
+  <si>
+    <t>a. X’Y’Z’+YZ+XZ+XY</t>
+  </si>
+  <si>
+    <t>b. X’Y’Z’+XZ+XY</t>
+  </si>
+  <si>
+    <t>c. X’Y+XZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f. X’Y’Z’+X’YZ+XYZ’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">g. X’Z’+XZ+Y’ </t>
+  </si>
+  <si>
+    <t>Punto XYZ</t>
+  </si>
+  <si>
+    <t>d. XZ+Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e. X’+Y’+Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +192,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -653,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,61 +761,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1164,7 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1136,7 +1176,7 @@
       <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1162,7 +1202,7 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>0</v>
       </c>
       <c r="I5" s="5">
@@ -1174,7 +1214,7 @@
       <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1200,7 +1240,7 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
       <c r="I6" s="5">
@@ -1212,7 +1252,7 @@
       <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1238,7 +1278,7 @@
       <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>1</v>
       </c>
       <c r="I7" s="5">
@@ -1250,7 +1290,7 @@
       <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1276,7 +1316,7 @@
       <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="5">
@@ -1288,7 +1328,7 @@
       <c r="K8" s="5">
         <v>0</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1314,7 +1354,7 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>0</v>
       </c>
       <c r="I9" s="5">
@@ -1326,7 +1366,7 @@
       <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1352,7 +1392,7 @@
       <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
       <c r="I10" s="5">
@@ -1364,7 +1404,7 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1390,7 +1430,7 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
       <c r="I11" s="5">
@@ -1402,7 +1442,7 @@
       <c r="K11" s="5">
         <v>0</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1428,7 +1468,7 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>1</v>
       </c>
       <c r="I12" s="5">
@@ -1440,7 +1480,7 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1593,14 +1633,14 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="H19" s="27" t="s">
+      <c r="C19" s="45"/>
+      <c r="H19" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="27"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1652,10 +1692,10 @@
       <c r="D24" s="14">
         <v>0</v>
       </c>
-      <c r="E24" s="28">
-        <v>1</v>
-      </c>
-      <c r="F24" s="29">
+      <c r="E24" s="27">
+        <v>1</v>
+      </c>
+      <c r="F24" s="28">
         <v>1</v>
       </c>
       <c r="H24" s="13">
@@ -1667,10 +1707,10 @@
       <c r="J24" s="14">
         <v>0</v>
       </c>
-      <c r="K24" s="30">
-        <v>1</v>
-      </c>
-      <c r="L24" s="31">
+      <c r="K24" s="29">
+        <v>1</v>
+      </c>
+      <c r="L24" s="30">
         <v>1</v>
       </c>
     </row>
@@ -1684,7 +1724,7 @@
       <c r="D25" s="22">
         <v>1</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>1</v>
       </c>
       <c r="F25" s="14">
@@ -1696,25 +1736,25 @@
       <c r="I25" s="14">
         <v>0</v>
       </c>
-      <c r="J25" s="33">
-        <v>1</v>
-      </c>
-      <c r="K25" s="34">
-        <v>1</v>
-      </c>
-      <c r="L25" s="35">
+      <c r="J25" s="32">
+        <v>1</v>
+      </c>
+      <c r="K25" s="33">
+        <v>1</v>
+      </c>
+      <c r="L25" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="H27" s="27" t="s">
+      <c r="C27" s="45"/>
+      <c r="H27" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="27"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1760,16 +1800,16 @@
       <c r="B32" s="20">
         <v>0</v>
       </c>
-      <c r="C32" s="36">
-        <v>1</v>
-      </c>
-      <c r="D32" s="37">
-        <v>1</v>
-      </c>
-      <c r="E32" s="38">
-        <v>1</v>
-      </c>
-      <c r="F32" s="39">
+      <c r="C32" s="35">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36">
+        <v>1</v>
+      </c>
+      <c r="E32" s="37">
+        <v>1</v>
+      </c>
+      <c r="F32" s="38">
         <v>1</v>
       </c>
       <c r="H32" s="20">
@@ -1781,7 +1821,7 @@
       <c r="J32" s="14">
         <v>0</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="39">
         <v>1</v>
       </c>
       <c r="L32" s="14">
@@ -1792,13 +1832,13 @@
       <c r="B33" s="14">
         <v>1</v>
       </c>
-      <c r="C33" s="41">
-        <v>1</v>
-      </c>
-      <c r="D33" s="42">
-        <v>1</v>
-      </c>
-      <c r="E33" s="43">
+      <c r="C33" s="40">
+        <v>1</v>
+      </c>
+      <c r="D33" s="41">
+        <v>1</v>
+      </c>
+      <c r="E33" s="42">
         <v>1</v>
       </c>
       <c r="F33" s="14">
@@ -1816,19 +1856,19 @@
       <c r="K33" s="14">
         <v>0</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="H35" s="27" t="s">
+      <c r="C35" s="45"/>
+      <c r="H35" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="27"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1874,19 +1914,19 @@
       <c r="B40" s="20">
         <v>0</v>
       </c>
-      <c r="C40" s="39">
-        <v>1</v>
-      </c>
-      <c r="D40" s="31">
+      <c r="C40" s="38">
+        <v>1</v>
+      </c>
+      <c r="D40" s="30">
         <v>1</v>
       </c>
       <c r="E40" s="14">
         <v>0</v>
       </c>
-      <c r="F40" s="36">
-        <v>1</v>
-      </c>
-      <c r="G40" s="45"/>
+      <c r="F40" s="35">
+        <v>1</v>
+      </c>
+      <c r="G40" s="44"/>
       <c r="H40" s="13">
         <v>0</v>
       </c>
@@ -1907,7 +1947,7 @@
       <c r="B41" s="14">
         <v>1</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="40">
         <v>1</v>
       </c>
       <c r="D41" s="25">
@@ -1936,14 +1976,54 @@
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="H43" s="27" t="s">
+      <c r="C43" s="45"/>
+      <c r="H43" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="27"/>
+      <c r="I43" s="45"/>
+    </row>
+    <row r="62" spans="5:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="E62" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="E63" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1957,5 +2037,6 @@
     <mergeCell ref="H35:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>